--- a/hebrewOutputs/hebrewComparison_13.xlsx
+++ b/hebrewOutputs/hebrewComparison_13.xlsx
@@ -52,75 +52,75 @@
     <t xml:space="preserve">מיכאל. </t>
   </si>
   <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>נעים מאד.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">היי נעים מאד. </t>
+  </si>
+  <si>
+    <t>מה קורה עם יואב?</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>אא עם יואב אא,</t>
+  </si>
+  <si>
+    <t>הוא בסדר?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא בסדר. כאילו עכשיו הוא עבר הוא, אנחנו עשינו לו בדיקות אא... </t>
+  </si>
+  <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t>מה אתה חושב שהוא איך אתה חושב שהוא מרגיש כאילו מבחינת אא איך הוא היה לפני?</t>
+  </si>
+  <si>
+    <t>r/o</t>
+  </si>
+  <si>
+    <t>אא אתה יודע, היו לו כאבי בטן,</t>
+  </si>
+  <si>
+    <t>כן.</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>לקחתי אותו לרופא למשפחה...</t>
+  </si>
+  <si>
+    <t>זה פעם ראשונה שיש לו את ה...</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אא אתה יודע היו לו כל מיני כאבי בטן בעבר אבל לא משהו שהוא.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">היום הפעם זה היה איכשהו זה היה נראה כמו וירוס קצת אא שנמשך </t>
+  </si>
+  <si>
+    <t>והגענו לרופא המשפחה והוא...</t>
+  </si>
+  <si>
+    <t>אהמ.</t>
+  </si>
+  <si>
+    <t>אא המליץ שנגיע למיון אמר ש...</t>
+  </si>
+  <si>
     <t>gives-other</t>
   </si>
   <si>
-    <t>נעים מאד.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">היי נעים מאד. </t>
-  </si>
-  <si>
-    <t>מה קורה עם יואב?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>אא עם יואב אא,</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>הוא בסדר?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא בסדר. כאילו עכשיו הוא עבר הוא, אנחנו עשינו לו בדיקות אא... </t>
-  </si>
-  <si>
-    <t>gives-med</t>
-  </si>
-  <si>
-    <t>מה אתה חושב שהוא איך אתה חושב שהוא מרגיש כאילו מבחינת אא איך הוא היה לפני?</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t>אא אתה יודע, היו לו כאבי בטן,</t>
-  </si>
-  <si>
-    <t>כן.</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>לקחתי אותו לרופא למשפחה...</t>
-  </si>
-  <si>
-    <t>זה פעם ראשונה שיש לו את ה...</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אא אתה יודע היו לו כל מיני כאבי בטן בעבר אבל לא משהו שהוא.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">היום הפעם זה היה איכשהו זה היה נראה כמו וירוס קצת אא שנמשך </t>
-  </si>
-  <si>
-    <t>והגענו לרופא המשפחה והוא...</t>
-  </si>
-  <si>
-    <t>אהמ.</t>
-  </si>
-  <si>
-    <t>אא המליץ שנגיע למיון אמר ש...</t>
-  </si>
-  <si>
     <t>טוב, טוב שהגעתם למיון. אא,</t>
   </si>
   <si>
@@ -130,30 +130,30 @@
     <t>אנחנו נוכל לצאת עוד מעט?</t>
   </si>
   <si>
+    <t xml:space="preserve">נראה לי שכן אבל אתם תצטרכו לטיפול אולי יותר ממושך מ... מטיפול ויראלי. זה לא... דבר ש... אא לא יועד איך אא ... </t>
+  </si>
+  <si>
+    <t>יש לכם מישהו במשפחה עם סכרת עם יש לכם מישהו במשפחה שחלה עם סכרת?</t>
+  </si>
+  <si>
+    <t>למה?</t>
+  </si>
+  <si>
+    <t>?other</t>
+  </si>
+  <si>
+    <t>לא, אני שואל. יש לכם מישהו יש מכם מישהו עם סכרת?</t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t>סכרת, לא.</t>
+  </si>
+  <si>
     <t>disagree</t>
   </si>
   <si>
-    <t xml:space="preserve">נראה לי שכן אבל אתם תצטרכו לטיפול אולי יותר ממושך מ... מטיפול ויראלי. זה לא... דבר ש... אא לא יועד איך אא ... </t>
-  </si>
-  <si>
-    <t>c-med/thera</t>
-  </si>
-  <si>
-    <t>יש לכם מישהו במשפחה עם סכרת עם יש לכם מישהו במשפחה שחלה עם סכרת?</t>
-  </si>
-  <si>
-    <t>למה?</t>
-  </si>
-  <si>
-    <t>?other</t>
-  </si>
-  <si>
-    <t>לא, אני שואל. יש לכם מישהו יש מכם מישהו עם סכרת?</t>
-  </si>
-  <si>
-    <t>סכרת, לא.</t>
-  </si>
-  <si>
     <t>לא?</t>
   </si>
   <si>
@@ -220,9 +220,6 @@
     <t>אני יודע.</t>
   </si>
   <si>
-    <t>emp</t>
-  </si>
-  <si>
     <t xml:space="preserve">אתה רוצה להגיד לי שפה יש איזשהו משהו שהתפרץ ככה סתם בלי בלי שום סיבה בלי שום הכנה? לא אחד במשפחה אין את זה. ממה? </t>
   </si>
   <si>
@@ -235,6 +232,9 @@
     <t>orient</t>
   </si>
   <si>
+    <t>?reassure</t>
+  </si>
+  <si>
     <t>כן יש הסבר. יש משהו גנטי במשפחה אולי אא...</t>
   </si>
   <si>
@@ -289,9 +289,6 @@
     <t xml:space="preserve"> אנחנו נדאג שהוא ירגיש עוד יותר טוב.</t>
   </si>
   <si>
-    <t>r/o</t>
-  </si>
-  <si>
     <t>אא סכרת נעורים היום ממש משהו נפוץ כאילו זה לא... דבר משהו חיובי אבל היום אפשר, אפשר לחיות עם זה.</t>
   </si>
   <si>
@@ -304,18 +301,18 @@
     <t>אתה מדבר פה על אורח ... זאת אומרת אא...</t>
   </si>
   <si>
+    <t xml:space="preserve">זה אורח חיים שהולך להשתנות. כן. </t>
+  </si>
+  <si>
+    <t>אני מצטער להגיד את זה אבל זה הולך להשתנות ממש. ממש ככה.</t>
+  </si>
+  <si>
+    <t>הוא בן חמש.</t>
+  </si>
+  <si>
     <t>concern</t>
   </si>
   <si>
-    <t xml:space="preserve">זה אורח חיים שהולך להשתנות. כן. </t>
-  </si>
-  <si>
-    <t>אני מצטער להגיד את זה אבל זה הולך להשתנות ממש. ממש ככה.</t>
-  </si>
-  <si>
-    <t>הוא בן חמש.</t>
-  </si>
-  <si>
     <t>אני יודע אני מצטער.</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>partner</t>
+  </si>
+  <si>
+    <t>c-l/s-p/s</t>
   </si>
   <si>
     <t>זה משהו שאנחנו עשינו,</t>
@@ -891,15 +891,15 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -910,43 +910,43 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -965,68 +965,68 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
         <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1045,65 +1045,65 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
         <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1298,43 +1298,43 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
         <v>71</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1474,7 +1474,7 @@
         <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -1485,10 +1485,10 @@
         <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1518,37 +1518,37 @@
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
         <v>58</v>
@@ -1559,65 +1559,65 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
         <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s">
         <v>100</v>
       </c>
-      <c r="B77" t="s">
-        <v>101</v>
-      </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" t="s">
         <v>102</v>
-      </c>
-      <c r="B78" t="s">
-        <v>103</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -1625,51 +1625,51 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s">
         <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
         <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -1680,43 +1680,43 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C87" t="s">
         <v>58</v>
@@ -1724,90 +1724,90 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
         <v>65</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" t="s">
         <v>120</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>121</v>
-      </c>
-      <c r="C95" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>122</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>126</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>127</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>128</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>129</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C103" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>130</v>
       </c>
       <c r="B104" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1914,7 +1914,7 @@
         <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
         <v>47</v>
@@ -1925,10 +1925,10 @@
         <v>132</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1936,21 +1936,21 @@
         <v>133</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
         <v>25</v>
-      </c>
-      <c r="B108" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>134</v>
       </c>
       <c r="B109" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>136</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>137</v>
       </c>
       <c r="B112" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C112" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
